--- a/Tasks To Complete.xlsx
+++ b/Tasks To Complete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="11145" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="11145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ADMIN UI" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +225,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -238,11 +244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +554,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,13 +672,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -680,13 +687,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -770,13 +777,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -812,6 +819,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1062,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,13 +1099,13 @@
         <f>1+A2</f>
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1106,13 +1114,13 @@
         <f t="shared" ref="A4:A8" si="0">1+A3</f>
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1185,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1226,7 +1234,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="0">1+A3</f>
+        <f t="shared" ref="A4:A6" si="0">1+A3</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">

--- a/Tasks To Complete.xlsx
+++ b/Tasks To Complete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="11145" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="ADMIN UI" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
   <si>
     <t>TASK</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Client UI Automation - skeleton</t>
+  </si>
+  <si>
+    <t>SALES transactions pagination issue</t>
+  </si>
+  <si>
+    <t>sorting in employee table, txn, tasks</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +820,34 @@
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1070,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Tasks To Complete.xlsx
+++ b/Tasks To Complete.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
   <si>
     <t>TASK</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>sorting in employee table, txn, tasks</t>
+  </si>
+  <si>
+    <t>triggering scheduled tasks automatically</t>
+  </si>
+  <si>
+    <t>Generate cost report</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,13 +624,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -708,13 +714,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -768,13 +774,13 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -813,13 +819,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -827,13 +833,13 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -848,6 +854,34 @@
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -862,7 +896,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1139,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,13 +1197,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Tasks To Complete.xlsx
+++ b/Tasks To Complete.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="66">
   <si>
     <t>TASK</t>
   </si>
@@ -197,13 +197,31 @@
   </si>
   <si>
     <t>Generate cost report</t>
+  </si>
+  <si>
+    <t>Tenant location column</t>
+  </si>
+  <si>
+    <t>POS Custombill</t>
+  </si>
+  <si>
+    <t>Manage customer table</t>
+  </si>
+  <si>
+    <t>TASK(REACT)</t>
+  </si>
+  <si>
+    <t>TASK(ANGULAR)</t>
+  </si>
+  <si>
+    <t>Modify Placed online orders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +229,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +268,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -256,12 +287,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,13 +687,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -669,13 +702,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -882,6 +915,62 @@
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -893,24 +982,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -918,8 +1009,17 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>1</v>
@@ -933,8 +1033,17 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">1+A3</f>
         <v>2</v>
@@ -948,8 +1057,17 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -963,8 +1081,17 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -978,8 +1105,17 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -993,8 +1129,17 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1008,8 +1153,17 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1023,8 +1177,17 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1038,8 +1201,17 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1053,8 +1225,17 @@
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1068,8 +1249,17 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1083,8 +1273,17 @@
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1098,8 +1297,17 @@
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1113,8 +1321,17 @@
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1126,6 +1343,15 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Tasks To Complete.xlsx
+++ b/Tasks To Complete.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="69">
   <si>
     <t>TASK</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>Modify Placed online orders</t>
+  </si>
+  <si>
+    <t>thaniga</t>
+  </si>
+  <si>
+    <t>christen</t>
+  </si>
+  <si>
+    <t>Dhamu</t>
   </si>
 </sst>
 </file>
@@ -596,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +617,7 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -622,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>1</v>
@@ -636,8 +645,11 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A18" si="0">1+A3</f>
         <v>2</v>
@@ -651,8 +663,11 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -667,7 +682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -681,8 +696,11 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -697,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -712,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -727,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -742,7 +760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -757,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -772,7 +790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -787,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -802,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -817,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -832,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -847,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -862,7 +880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -876,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -890,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -904,7 +922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -918,7 +936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -932,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -946,7 +964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -959,8 +977,11 @@
       <c r="D25" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -984,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C17" sqref="A17:C17"/>
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tasks To Complete.xlsx
+++ b/Tasks To Complete.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="ADMIN UI" sheetId="1" r:id="rId1"/>
     <sheet name="CLIENT UI" sheetId="2" r:id="rId2"/>
-    <sheet name="DEVOPS" sheetId="3" r:id="rId3"/>
-    <sheet name="Automation" sheetId="4" r:id="rId4"/>
+    <sheet name="Android" sheetId="5" r:id="rId3"/>
+    <sheet name="DEVOPS" sheetId="3" r:id="rId4"/>
+    <sheet name="Automation" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>TASK</t>
   </si>
@@ -224,6 +225,75 @@
   </si>
   <si>
     <t>Dhamu</t>
+  </si>
+  <si>
+    <t>Integrate Google Login</t>
+  </si>
+  <si>
+    <t>Integrate Facebook Login</t>
+  </si>
+  <si>
+    <t>Deploy Android Application</t>
+  </si>
+  <si>
+    <t>Sekeleton ionic cordova project</t>
+  </si>
+  <si>
+    <t>Integrate with UI</t>
+  </si>
+  <si>
+    <t>SKELETON PROJECT</t>
+  </si>
+  <si>
+    <t>Backend API Module</t>
+  </si>
+  <si>
+    <t>Backend Core Module</t>
+  </si>
+  <si>
+    <t>Backend Commons Module</t>
+  </si>
+  <si>
+    <t>Backend Persistence Module</t>
+  </si>
+  <si>
+    <t>Backend Service Module</t>
+  </si>
+  <si>
+    <t>Dashboard module</t>
+  </si>
+  <si>
+    <t>Employee module</t>
+  </si>
+  <si>
+    <t>Invoice module</t>
+  </si>
+  <si>
+    <t>sales module</t>
+  </si>
+  <si>
+    <t>order module</t>
+  </si>
+  <si>
+    <t>Products module</t>
+  </si>
+  <si>
+    <t>Coupon module</t>
+  </si>
+  <si>
+    <t>Media module</t>
+  </si>
+  <si>
+    <t>profile module</t>
+  </si>
+  <si>
+    <t>default module and shared components</t>
+  </si>
+  <si>
+    <t>Muhil</t>
+  </si>
+  <si>
+    <t>Mani</t>
   </si>
 </sst>
 </file>
@@ -246,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +353,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,14 +378,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,6 +715,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
@@ -714,6 +815,9 @@
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -729,6 +833,9 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E8" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -744,6 +851,9 @@
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -759,6 +869,9 @@
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -774,6 +887,9 @@
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -834,6 +950,9 @@
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E15" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -848,6 +967,9 @@
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,6 +1015,9 @@
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -921,6 +1046,9 @@
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E21" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -935,19 +1063,25 @@
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E22" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,6 +1097,9 @@
       <c r="D24" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E24" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -993,6 +1130,261 @@
       </c>
       <c r="D26" s="5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1003,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="C13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1409,7 @@
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1040,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>1</v>
@@ -1063,8 +1455,11 @@
       <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">1+A3</f>
         <v>2</v>
@@ -1087,8 +1482,11 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1111,8 +1509,11 @@
       <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1135,8 +1536,11 @@
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1159,8 +1563,11 @@
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1174,17 +1581,20 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1207,8 +1617,11 @@
       <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1222,17 +1635,20 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1246,17 +1662,20 @@
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1270,17 +1689,20 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1294,17 +1716,20 @@
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1318,17 +1743,20 @@
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1352,7 +1780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1366,13 +1794,38 @@
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1383,7 +1836,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>1+A2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -1395,7 +1917,7 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1409,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>1</v>
@@ -1423,8 +1945,11 @@
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A8" si="0">1+A3</f>
         <v>2</v>
@@ -1438,8 +1963,11 @@
       <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1453,8 +1981,11 @@
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1469,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1484,7 +2015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1497,6 +2028,23 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1504,12 +2052,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tasks To Complete.xlsx
+++ b/Tasks To Complete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="11145"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="11145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ADMIN UI" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="94">
   <si>
     <t>TASK</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Mani</t>
+  </si>
+  <si>
+    <t>coupons upgrade</t>
+  </si>
+  <si>
+    <t>Pagination for pos &amp; order history</t>
   </si>
 </sst>
 </file>
@@ -689,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,6 +1393,25 @@
         <v>90</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1395,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,18 +1832,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="5" t="s">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
         <v>70</v>
       </c>
@@ -1826,6 +1854,17 @@
         <v>5</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Tasks To Complete.xlsx
+++ b/Tasks To Complete.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="100">
   <si>
     <t>TASK</t>
   </si>
@@ -300,6 +300,24 @@
   </si>
   <si>
     <t>Pagination for pos &amp; order history</t>
+  </si>
+  <si>
+    <t>Christen</t>
+  </si>
+  <si>
+    <t>alerts &amp; ui fields check</t>
+  </si>
+  <si>
+    <t>OTP functionality</t>
+  </si>
+  <si>
+    <t>Move Search tab to separate component</t>
+  </si>
+  <si>
+    <t>Add/edit address in profile tab</t>
+  </si>
+  <si>
+    <t>Sorting and pagination for searched products</t>
   </si>
 </sst>
 </file>
@@ -322,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +389,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -384,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -394,6 +418,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -1420,17 +1445,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1867,9 +1892,74 @@
       <c r="H19" t="s">
         <v>18</v>
       </c>
+      <c r="I19" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
